--- a/ABT_train.xlsx
+++ b/ABT_train.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
   <si>
     <t>Feature</t>
   </si>
@@ -58,6 +58,9 @@
     <t>dtype</t>
   </si>
   <si>
+    <t>Unnamed: 0</t>
+  </si>
+  <si>
     <t>LoanID</t>
   </si>
   <si>
@@ -121,10 +124,10 @@
     <t>Y</t>
   </si>
   <si>
+    <t>int64</t>
+  </si>
+  <si>
     <t>object</t>
-  </si>
-  <si>
-    <t>int64</t>
   </si>
   <si>
     <t>float64</t>
@@ -485,7 +488,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -542,20 +545,32 @@
       <c r="B2">
         <v>614</v>
       </c>
-      <c r="C2">
-        <v>614</v>
-      </c>
-      <c r="D2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
+      <c r="F2">
+        <v>306.5</v>
+      </c>
+      <c r="G2">
+        <v>177.3908114869539</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>153.25</v>
+      </c>
+      <c r="J2">
+        <v>306.5</v>
+      </c>
+      <c r="K2">
+        <v>459.75</v>
+      </c>
+      <c r="L2">
+        <v>613</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -563,22 +578,22 @@
         <v>15</v>
       </c>
       <c r="B3">
-        <v>601</v>
+        <v>614</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>614</v>
       </c>
       <c r="D3" t="s">
         <v>28</v>
       </c>
       <c r="E3">
-        <v>489</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="N3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -586,7 +601,7 @@
         <v>16</v>
       </c>
       <c r="B4">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -595,13 +610,13 @@
         <v>29</v>
       </c>
       <c r="E4">
-        <v>398</v>
+        <v>489</v>
       </c>
       <c r="M4">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="N4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -609,22 +624,22 @@
         <v>17</v>
       </c>
       <c r="B5">
-        <v>599</v>
+        <v>611</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="s">
         <v>30</v>
       </c>
       <c r="E5">
-        <v>345</v>
+        <v>398</v>
       </c>
       <c r="M5">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -632,22 +647,22 @@
         <v>18</v>
       </c>
       <c r="B6">
-        <v>614</v>
+        <v>599</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
         <v>31</v>
       </c>
       <c r="E6">
-        <v>480</v>
+        <v>345</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -655,7 +670,7 @@
         <v>19</v>
       </c>
       <c r="B7">
-        <v>582</v>
+        <v>614</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -664,13 +679,13 @@
         <v>32</v>
       </c>
       <c r="E7">
-        <v>500</v>
+        <v>480</v>
       </c>
       <c r="M7">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="N7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -678,34 +693,22 @@
         <v>20</v>
       </c>
       <c r="B8">
-        <v>614</v>
-      </c>
-      <c r="F8">
-        <v>5403.459283387622</v>
-      </c>
-      <c r="G8">
-        <v>6109.041673387178</v>
-      </c>
-      <c r="H8">
-        <v>150</v>
-      </c>
-      <c r="I8">
-        <v>2877.5</v>
-      </c>
-      <c r="J8">
-        <v>3812.5</v>
-      </c>
-      <c r="K8">
-        <v>5795</v>
-      </c>
-      <c r="L8">
-        <v>81000</v>
+        <v>582</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8">
+        <v>500</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="N8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -716,31 +719,31 @@
         <v>614</v>
       </c>
       <c r="F9">
-        <v>1621.245798027101</v>
+        <v>5403.459283387622</v>
       </c>
       <c r="G9">
-        <v>2926.248369224189</v>
+        <v>6109.041673387178</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2877.5</v>
       </c>
       <c r="J9">
-        <v>1188.5</v>
+        <v>3812.5</v>
       </c>
       <c r="K9">
-        <v>2297.25</v>
+        <v>5795</v>
       </c>
       <c r="L9">
-        <v>41667</v>
+        <v>81000</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -748,34 +751,34 @@
         <v>22</v>
       </c>
       <c r="B10">
-        <v>592</v>
+        <v>614</v>
       </c>
       <c r="F10">
-        <v>146.4121621621622</v>
+        <v>1621.245798027101</v>
       </c>
       <c r="G10">
-        <v>85.58732523570545</v>
+        <v>2926.248369224189</v>
       </c>
       <c r="H10">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>128</v>
+        <v>1188.5</v>
       </c>
       <c r="K10">
-        <v>168</v>
+        <v>2297.25</v>
       </c>
       <c r="L10">
-        <v>700</v>
+        <v>41667</v>
       </c>
       <c r="M10">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="N10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -783,34 +786,34 @@
         <v>23</v>
       </c>
       <c r="B11">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="F11">
-        <v>342</v>
+        <v>146.4121621621622</v>
       </c>
       <c r="G11">
-        <v>65.12040985461256</v>
+        <v>85.58732523570545</v>
       </c>
       <c r="H11">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I11">
-        <v>360</v>
+        <v>100</v>
       </c>
       <c r="J11">
-        <v>360</v>
+        <v>128</v>
       </c>
       <c r="K11">
-        <v>360</v>
+        <v>168</v>
       </c>
       <c r="L11">
-        <v>480</v>
+        <v>700</v>
       </c>
       <c r="M11">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="N11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -818,34 +821,34 @@
         <v>24</v>
       </c>
       <c r="B12">
-        <v>564</v>
+        <v>600</v>
       </c>
       <c r="F12">
-        <v>0.8421985815602837</v>
+        <v>342</v>
       </c>
       <c r="G12">
-        <v>0.3648783192364048</v>
+        <v>65.12040985461256</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>360</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>360</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>360</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>480</v>
       </c>
       <c r="M12">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="N12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -853,22 +856,34 @@
         <v>25</v>
       </c>
       <c r="B13">
-        <v>614</v>
-      </c>
-      <c r="C13">
-        <v>3</v>
-      </c>
-      <c r="D13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13">
-        <v>233</v>
+        <v>564</v>
+      </c>
+      <c r="F13">
+        <v>0.8421985815602837</v>
+      </c>
+      <c r="G13">
+        <v>0.3648783192364048</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="N13" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -879,19 +894,42 @@
         <v>614</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="s">
         <v>34</v>
       </c>
       <c r="E14">
+        <v>233</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15">
+        <v>614</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15">
         <v>422</v>
       </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14" t="s">
-        <v>35</v>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
